--- a/Shedules/ISD3 Web Project - Schedule2020-21.xlsx
+++ b/Shedules/ISD3 Web Project - Schedule2020-21.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2020 ISD3 Web Engineering Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/112e8136484fc207/Documents/GitHub/SOAM-Sullimar-Academy-of-Music/Shedules/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_560E7C99C1A55CC80280A140021468738CA76E74" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{58BDF719-1CB5-4361-85BD-27166CB1A374}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11700" windowHeight="3570"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -54,9 +66,6 @@
     <t>Use Case Specifications 1st (Iteration) - Friday 30th October</t>
   </si>
   <si>
-    <t>Current Services Description - Friday 16th October 2020</t>
-  </si>
-  <si>
     <t>Prototyping - Monday 16th October &amp; present this week to supervisor</t>
   </si>
   <si>
@@ -77,11 +86,14 @@
   <si>
     <t>Project Schedule for Academic Year 2020/2021</t>
   </si>
+  <si>
+    <t>Current Services Description - Sunday 18th October 2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -216,6 +228,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -223,16 +241,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -323,6 +335,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -358,6 +387,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -533,53 +579,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D399"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="72.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="72.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" customWidth="1"/>
     <col min="6" max="6" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+      <c r="A4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -590,20 +636,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="15">
         <v>44081</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="15">
         <f>+B6+7</f>
         <v>44088</v>
       </c>
@@ -611,62 +657,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="15">
         <f t="shared" ref="B8:B19" si="0">+B7+7</f>
         <v>44095</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="15">
         <f t="shared" si="0"/>
         <v>44102</v>
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>44109</v>
       </c>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>44116</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>44123</v>
       </c>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="15">
         <f t="shared" si="0"/>
         <v>44130</v>
       </c>
@@ -674,86 +720,86 @@
         <v>9</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="15">
         <f t="shared" si="0"/>
         <v>44137</v>
       </c>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="15">
         <f t="shared" si="0"/>
         <v>44144</v>
       </c>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="15">
         <f t="shared" si="0"/>
         <v>44151</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="15">
         <f t="shared" si="0"/>
         <v>44158</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="15">
         <f t="shared" si="0"/>
         <v>44165</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="15">
         <f t="shared" si="0"/>
         <v>44172</v>
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="2"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="2"/>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>7</v>
       </c>
@@ -762,59 +808,59 @@
       </c>
       <c r="C22" s="12"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>20</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="16">
         <v>44200</v>
       </c>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>21</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="16">
         <f>+B24+7</f>
         <v>44207</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>22</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="16">
         <f t="shared" ref="B26:B30" si="1">+B25+7</f>
         <v>44214</v>
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>23</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="16">
         <f t="shared" si="1"/>
         <v>44221</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>24</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="16">
         <f t="shared" si="1"/>
         <v>44228</v>
       </c>
@@ -822,1128 +868,1128 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>25</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="16">
         <f t="shared" si="1"/>
         <v>44235</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>26</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="16">
         <f t="shared" si="1"/>
         <v>44242</v>
       </c>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" s="1"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" s="1"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" s="1"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" s="1"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" s="1"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" s="1"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" s="1"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" s="1"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" s="1"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" s="1"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" s="1"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" s="1"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" s="1"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" s="1"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" s="1"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" s="1"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" s="1"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" s="1"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" s="1"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" s="1"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" s="1"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" s="1"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" s="1"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" s="1"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" s="1"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" s="1"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" s="1"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" s="1"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" s="1"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" s="1"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" s="1"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" s="1"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" s="1"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" s="1"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" s="1"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" s="1"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" s="1"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" s="1"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" s="1"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" s="1"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" s="1"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" s="1"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" s="1"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282" s="1"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" s="1"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" s="1"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285" s="1"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B286" s="1"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" s="1"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B289" s="1"/>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" s="1"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" s="1"/>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B292" s="1"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" s="1"/>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B294" s="1"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295" s="1"/>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B296" s="1"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B297" s="1"/>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B298" s="1"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" s="1"/>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B300" s="1"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301" s="1"/>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B304" s="1"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" s="1"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B306" s="1"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B307" s="1"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308" s="1"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B309" s="1"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B310" s="1"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" s="1"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B312" s="1"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B313" s="1"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B316" s="1"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B318" s="1"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B320" s="1"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B321" s="1"/>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B322" s="1"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B323" s="1"/>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B324" s="1"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B325" s="1"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326" s="1"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B327" s="1"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B328" s="1"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329" s="1"/>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B330" s="1"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B331" s="1"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B332" s="1"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B333" s="1"/>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B334" s="1"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B335" s="1"/>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B336" s="1"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B337" s="1"/>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B338" s="1"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B339" s="1"/>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B340" s="1"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B341" s="1"/>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B342" s="1"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B343" s="1"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B344" s="1"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B345" s="1"/>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B346" s="1"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B347" s="1"/>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B348" s="1"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B349" s="1"/>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B350" s="1"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B351" s="1"/>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B352" s="1"/>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B353" s="1"/>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B354" s="1"/>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B355" s="1"/>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B356" s="1"/>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B357" s="1"/>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B358" s="1"/>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B359" s="1"/>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B360" s="1"/>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B361" s="1"/>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B362" s="1"/>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B363" s="1"/>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B364" s="1"/>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365" s="1"/>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B366" s="1"/>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B367" s="1"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B368" s="1"/>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B369" s="1"/>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B370" s="1"/>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B371" s="1"/>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B372" s="1"/>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B373" s="1"/>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B374" s="1"/>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B375" s="1"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B376" s="1"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B377" s="1"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B378" s="1"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B379" s="1"/>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B380" s="1"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B381" s="1"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B382" s="1"/>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B383" s="1"/>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B384" s="1"/>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B385" s="1"/>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B386" s="1"/>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B387" s="1"/>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B388" s="1"/>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B389" s="1"/>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B390" s="1"/>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B391" s="1"/>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B392" s="1"/>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B393" s="1"/>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B394" s="1"/>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B395" s="1"/>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B396" s="1"/>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B397" s="1"/>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B398" s="1"/>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B399" s="1"/>
     </row>
   </sheetData>
